--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503716.1918889172</v>
+        <v>507928.1496602877</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340007</v>
       </c>
       <c r="C2" t="n">
         <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="E2" t="n">
         <v>154332.7400023158</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="F4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="G4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="H4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="I4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="J4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="K4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="L4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="M4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="N4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="O4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="P4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55539.5955042879</v>
+        <v>56233.19753189094</v>
       </c>
       <c r="C6" t="n">
-        <v>55539.59550428796</v>
+        <v>56233.19753189117</v>
       </c>
       <c r="D6" t="n">
-        <v>55539.59550428802</v>
+        <v>56233.19753189106</v>
       </c>
       <c r="E6" t="n">
-        <v>-52870.28822621205</v>
+        <v>-52459.25610665224</v>
       </c>
       <c r="F6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="G6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="H6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="I6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="J6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="K6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="L6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="M6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="N6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="O6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
       <c r="P6" t="n">
-        <v>80229.71177378802</v>
+        <v>80640.74389334777</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507928.1496602877</v>
+        <v>521654.5077977061</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340007</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="D2" t="n">
         <v>553011.5286340008</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56233.19753189094</v>
+        <v>56233.19753189115</v>
       </c>
       <c r="C6" t="n">
-        <v>56233.19753189117</v>
+        <v>56233.19753189127</v>
       </c>
       <c r="D6" t="n">
-        <v>56233.19753189106</v>
+        <v>56233.19753189103</v>
       </c>
       <c r="E6" t="n">
-        <v>-52459.25610665224</v>
+        <v>-52459.25610665231</v>
       </c>
       <c r="F6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="G6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="H6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="I6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="J6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="K6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="L6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="M6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="N6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="O6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
       <c r="P6" t="n">
-        <v>80640.74389334777</v>
+        <v>80640.74389334775</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521654.5077977061</v>
+        <v>437869.1060360812</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>553011.528634001</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.528634001</v>
       </c>
       <c r="E2" t="n">
         <v>154332.7400023158</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56233.19753189115</v>
+        <v>56189.06175321002</v>
       </c>
       <c r="C6" t="n">
-        <v>56233.19753189127</v>
+        <v>56189.06175321014</v>
       </c>
       <c r="D6" t="n">
-        <v>56233.19753189103</v>
+        <v>56189.06175321014</v>
       </c>
       <c r="E6" t="n">
-        <v>-52459.25610665231</v>
+        <v>-67269.27294576622</v>
       </c>
       <c r="F6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="G6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="H6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="I6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="J6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="K6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="L6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="M6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="N6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="O6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
       <c r="P6" t="n">
-        <v>80640.74389334775</v>
+        <v>65830.72705423385</v>
       </c>
     </row>
   </sheetData>
